--- a/Capstone/Capstone/Wine type.xlsx
+++ b/Capstone/Capstone/Wine type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\OneDrive\Documents\R Homework\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AF5D2-B633-49BF-8C81-242060230905}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91151445-4D32-410E-B25B-CBC65BB44ABE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="3520" xr2:uid="{2DBE50FA-4C3C-45C0-A4C1-D8B91060C4C4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
   <si>
     <t>Agiorgitiko</t>
   </si>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86271071-880E-4278-8763-0838F983FCA6}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1467,7 +1467,9 @@
       <c r="A98" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:A98">
